--- a/Raw Data/Source.xlsx
+++ b/Raw Data/Source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zdrag\Desktop\Everything\Roulette Data Analysis Project\Raw Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zdrag\Desktop\Roulette Data Analysis Project\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A94C53F-BA91-4111-BD9F-0CCFD1819365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A2392E-5CF8-4D9A-8D4C-82C9E70A7662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Dataset</t>
-  </si>
-  <si>
     <t>LIVE ROULETTE IN CASINO SESSION NEW Morning Monday Exclusive✔️ 2023-08-07</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>LIVE Roulette BIG LOST BET Hot Casino Las Vegas Real Session Saturday ✔️2023-08-12</t>
+  </si>
+  <si>
+    <t>DATASET</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +394,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -408,10 +408,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -419,10 +419,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,10 +430,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
